--- a/examples/example2.xlsx
+++ b/examples/example2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="pazienti" sheetId="1" state="visible" r:id="rId2"/>
@@ -590,13 +590,13 @@
   </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.74"/>
@@ -939,13 +939,13 @@
   </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.74"/>
@@ -1295,7 +1295,7 @@
       <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.74"/>
@@ -1595,7 +1595,7 @@
       <selection pane="bottomLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.69"/>
@@ -1813,7 +1813,7 @@
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.31"/>
